--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -114,7 +114,7 @@
     <t>&lt;val1&gt;は力尽きた</t>
   </si>
   <si>
-    <t>&lt;val1&gt;に毒を与えた</t>
+    <t>&lt;val1&gt;は毒を受けた</t>
   </si>
   <si>
     <t>&lt;val1&gt;は混乱した</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>最大HPが&lt;val1&gt;上昇した</t>
+  </si>
+  <si>
+    <t>最後の一撃！！</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1571,7 +1574,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A69">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A70">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2407,6 +2410,18 @@
       </c>
       <c r="C69" t="s" s="4">
         <v>17</v>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1">
+      <c r="A70" s="5">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2465,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2474,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2483,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2492,7 +2507,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2501,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2510,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2519,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2528,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2537,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2546,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2555,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2564,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2573,7 +2588,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2582,7 +2597,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2591,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2600,7 +2615,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2609,7 +2624,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2618,7 +2633,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2627,7 +2642,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2636,7 +2651,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2645,7 +2660,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2654,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2663,7 +2678,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2672,7 +2687,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2681,7 +2696,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2690,7 +2705,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2699,7 +2714,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2708,7 +2723,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2717,7 +2732,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2726,7 +2741,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2744,7 +2759,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2753,7 +2768,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2762,7 +2777,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2771,7 +2786,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>最後の一撃！！</t>
+  </si>
+  <si>
+    <t>食糧がなくなった</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1574,7 +1577,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A70">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A71">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2422,6 +2425,18 @@
       </c>
       <c r="C70" t="s" s="4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1">
+      <c r="A71" s="5">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2480,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2489,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2498,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2507,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2516,7 +2531,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2525,7 +2540,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2534,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2543,7 +2558,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2552,7 +2567,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2561,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2570,7 +2585,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2579,7 +2594,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2588,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2597,7 +2612,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2606,7 +2621,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2615,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2624,7 +2639,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2633,7 +2648,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2642,7 +2657,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2651,7 +2666,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2660,7 +2675,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2669,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2678,7 +2693,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2687,7 +2702,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2696,7 +2711,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2705,7 +2720,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2714,7 +2729,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2723,7 +2738,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2732,7 +2747,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2741,7 +2756,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2759,7 +2774,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2768,7 +2783,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2777,7 +2792,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2786,7 +2801,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>食糧がなくなった</t>
+  </si>
+  <si>
+    <t>空腹のため&lt;val1&gt;ダメージを受けた</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1577,7 +1580,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1613,7 +1616,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A71">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A72">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2436,6 +2439,18 @@
         <v>79</v>
       </c>
       <c r="C71" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1">
+      <c r="A72" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2486,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2495,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2504,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2513,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2522,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2531,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2540,7 +2555,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2549,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2558,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2567,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2576,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2585,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2594,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2603,7 +2618,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2612,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2621,7 +2636,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2630,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2639,7 +2654,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2648,7 +2663,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2657,7 +2672,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2666,7 +2681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2675,7 +2690,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2684,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2693,7 +2708,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2702,7 +2717,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2711,7 +2726,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2720,7 +2735,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2729,7 +2744,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2738,7 +2753,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2747,7 +2762,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2756,7 +2771,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2774,7 +2789,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2783,7 +2798,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2792,7 +2807,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2801,7 +2816,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>空腹のため&lt;val1&gt;ダメージを受けた</t>
+  </si>
+  <si>
+    <t>命中率が&lt;val1&gt;%上昇した</t>
+  </si>
+  <si>
+    <t>回避率が&lt;val1&gt;%上昇した</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1580,7 +1586,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1616,7 +1622,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A72">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A74">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2452,6 +2458,30 @@
       </c>
       <c r="C72" t="s" s="4">
         <v>6</v>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1">
+      <c r="A73" s="5">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1">
+      <c r="A74" s="5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2510,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2519,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2528,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2537,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2546,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2555,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2564,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2573,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2582,7 +2612,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2591,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2600,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2609,7 +2639,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2618,7 +2648,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2627,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2636,7 +2666,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2645,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2654,7 +2684,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2663,7 +2693,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2672,7 +2702,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2681,7 +2711,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2690,7 +2720,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2699,7 +2729,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2708,7 +2738,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2717,7 +2747,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2726,7 +2756,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2735,7 +2765,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2744,7 +2774,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2753,7 +2783,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2762,7 +2792,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2771,7 +2801,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2789,7 +2819,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2798,7 +2828,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2807,7 +2837,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2816,7 +2846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -138,10 +138,10 @@
     <t>&lt;val1&gt;は衰弱した</t>
   </si>
   <si>
-    <t>HPが足りない</t>
-  </si>
-  <si>
-    <t>TPが足りない</t>
+    <t>&lt;val1&gt;はスタンした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は動けない</t>
   </si>
   <si>
     <t>しかし逃げることはできなかった</t>
@@ -2001,7 +2001,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -51,7 +51,7 @@
     <t>&lt;val1&gt;を倒した</t>
   </si>
   <si>
-    <t>戦闘に勝利した</t>
+    <t>ダミー</t>
   </si>
   <si>
     <t>&lt;val1&gt;は力尽きた……</t>
@@ -72,9 +72,6 @@
     <t>&lt;val1&gt;は逃げ出した</t>
   </si>
   <si>
-    <t>&lt;val1&gt;は&lt;val2&gt;を落とした</t>
-  </si>
-  <si>
     <t>&lt;val1&gt;を手に入れた</t>
   </si>
   <si>
@@ -93,24 +90,6 @@
     <t>捨てるアイテムを選択してください</t>
   </si>
   <si>
-    <t>&lt;val1&gt;の経験値を獲得した</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;はレベルアップした</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;はHPが全回復した</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;は&lt;val2&gt;を発動した</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;は攻撃をかわした</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;に効果はなかった</t>
-  </si>
-  <si>
     <t>&lt;val1&gt;は力尽きた</t>
   </si>
   <si>
@@ -144,36 +123,6 @@
     <t>&lt;val1&gt;は動けない</t>
   </si>
   <si>
-    <t>しかし逃げることはできなかった</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;は眠っている</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;のスキルは封印されている</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;は痺れて動けない</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の攻撃力がアップした</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の防御力力がアップした</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の素早さがアップした</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の攻撃力がダウンした</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の防御力力がダウンした</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の素早さがダウンした</t>
-  </si>
-  <si>
     <t>&lt;val1&gt;を&lt;val2&gt;Gで購入した</t>
   </si>
   <si>
@@ -186,21 +135,6 @@
     <t>&lt;val1&gt;の最大HPが&lt;val2&gt;上昇した</t>
   </si>
   <si>
-    <t>&lt;val1&gt;の力が&lt;val2&gt;上昇した</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の体力が&lt;val2&gt;上昇した</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の素早さが&lt;val2&gt;上昇した</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;の魔力が&lt;val2&gt;上昇した</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;のTPが&lt;val2&gt;回復した</t>
-  </si>
-  <si>
     <t>アイテム所持数が最大なので購入できない</t>
   </si>
   <si>
@@ -262,6 +196,9 @@
   </si>
   <si>
     <t>回避率が&lt;val1&gt;%上昇した</t>
+  </si>
+  <si>
+    <t>お金が足りない</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1586,7 +1523,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1622,7 +1559,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A74">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A75">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1734,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s" s="4">
         <v>8</v>
@@ -1746,10 +1683,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s" s="4">
         <v>20</v>
-      </c>
-      <c r="C13" t="s" s="4">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -1758,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -1770,10 +1707,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -1782,10 +1719,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -1794,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s" s="4">
         <v>10</v>
@@ -1806,10 +1743,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1818,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s" s="4">
         <v>8</v>
@@ -1830,7 +1767,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s" s="4">
         <v>17</v>
@@ -1842,10 +1779,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1854,10 +1791,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1866,10 +1803,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1878,7 +1815,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s" s="4">
         <v>14</v>
@@ -1890,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s" s="4">
         <v>6</v>
@@ -1902,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s" s="4">
         <v>6</v>
@@ -1914,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s" s="4">
         <v>6</v>
@@ -1926,7 +1863,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s" s="4">
         <v>6</v>
@@ -1938,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s" s="4">
         <v>6</v>
@@ -1950,7 +1887,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s" s="4">
         <v>6</v>
@@ -1962,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s" s="4">
         <v>6</v>
@@ -1974,7 +1911,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s" s="4">
         <v>6</v>
@@ -1986,7 +1923,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s" s="4">
         <v>6</v>
@@ -1998,7 +1935,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s" s="4">
         <v>10</v>
@@ -2010,7 +1947,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s" s="4">
         <v>6</v>
@@ -2022,7 +1959,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s" s="4">
         <v>10</v>
@@ -2034,7 +1971,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s" s="4">
         <v>10</v>
@@ -2046,7 +1983,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s" s="4">
         <v>10</v>
@@ -2058,7 +1995,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s" s="4">
         <v>6</v>
@@ -2070,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s" s="4">
         <v>6</v>
@@ -2082,7 +2019,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s" s="4">
         <v>6</v>
@@ -2094,7 +2031,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s" s="4">
         <v>6</v>
@@ -2106,7 +2043,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s" s="4">
         <v>6</v>
@@ -2118,7 +2055,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s" s="4">
         <v>6</v>
@@ -2130,10 +2067,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2142,7 +2079,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s" s="4">
         <v>8</v>
@@ -2154,10 +2091,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2166,10 +2103,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2178,10 +2115,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2190,10 +2127,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2202,10 +2139,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2214,10 +2151,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2226,7 +2163,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s" s="4">
         <v>17</v>
@@ -2238,7 +2175,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s" s="4">
         <v>6</v>
@@ -2250,7 +2187,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s" s="4">
         <v>10</v>
@@ -2262,7 +2199,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s" s="4">
         <v>10</v>
@@ -2274,7 +2211,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s" s="4">
         <v>10</v>
@@ -2286,7 +2223,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s" s="4">
         <v>6</v>
@@ -2298,10 +2235,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2310,7 +2247,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>10</v>
@@ -2322,7 +2259,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>10</v>
@@ -2334,7 +2271,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>10</v>
@@ -2346,7 +2283,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>10</v>
@@ -2358,7 +2295,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2370,7 +2307,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2382,10 +2319,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2394,7 +2331,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s" s="4">
         <v>10</v>
@@ -2406,7 +2343,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s" s="4">
         <v>17</v>
@@ -2418,7 +2355,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s" s="4">
         <v>17</v>
@@ -2430,7 +2367,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s" s="4">
         <v>10</v>
@@ -2442,7 +2379,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s" s="4">
         <v>6</v>
@@ -2454,7 +2391,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s" s="4">
         <v>6</v>
@@ -2466,7 +2403,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s" s="4">
         <v>17</v>
@@ -2478,10 +2415,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s" s="4">
         <v>17</v>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1">
+      <c r="A75" s="5">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2540,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2549,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2558,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2567,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2576,7 +2525,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2585,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2594,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2603,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2612,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2621,7 +2570,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2630,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2639,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2648,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2657,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2666,7 +2615,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2675,7 +2624,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2684,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2693,7 +2642,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2702,7 +2651,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2711,7 +2660,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2720,7 +2669,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2729,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2738,7 +2687,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2747,7 +2696,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2756,7 +2705,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2765,7 +2714,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2774,7 +2723,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2783,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2792,7 +2741,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2801,7 +2750,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2810,7 +2759,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2819,7 +2768,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2828,7 +2777,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2837,7 +2786,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2846,7 +2795,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>お金が足りない</t>
+  </si>
+  <si>
+    <t>食糧が足りない</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1523,7 +1526,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A75">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A76">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2430,6 +2433,18 @@
         <v>61</v>
       </c>
       <c r="C75" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1">
+      <c r="A76" s="5">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="C76" t="s" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2480,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2489,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2498,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2507,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2516,7 +2531,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2525,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2534,7 +2549,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2543,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2552,7 +2567,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2561,7 +2576,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2570,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2579,7 +2594,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2588,7 +2603,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2597,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2606,7 +2621,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2615,7 +2630,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2624,7 +2639,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2633,7 +2648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2642,7 +2657,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2651,7 +2666,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2660,7 +2675,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2669,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2678,7 +2693,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2687,7 +2702,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2696,7 +2711,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2705,7 +2720,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2714,7 +2729,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2723,7 +2738,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2732,7 +2747,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2741,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2750,7 +2765,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2768,7 +2783,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2777,7 +2792,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2786,7 +2801,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2795,7 +2810,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>捨てるアイテムを選択してください</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は攻撃をかわした</t>
   </si>
   <si>
     <t>&lt;val1&gt;は力尽きた</t>
@@ -1794,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s" s="4">
         <v>20</v>
@@ -1818,7 +1821,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s" s="4">
         <v>14</v>
@@ -1830,7 +1833,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s" s="4">
         <v>6</v>
@@ -1842,7 +1845,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s" s="4">
         <v>6</v>
@@ -1854,7 +1857,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s" s="4">
         <v>6</v>
@@ -1866,7 +1869,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s" s="4">
         <v>6</v>
@@ -1878,7 +1881,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s" s="4">
         <v>6</v>
@@ -1890,7 +1893,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s" s="4">
         <v>6</v>
@@ -1902,7 +1905,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s" s="4">
         <v>6</v>
@@ -1914,7 +1917,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s" s="4">
         <v>6</v>
@@ -1926,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s" s="4">
         <v>6</v>
@@ -1938,7 +1941,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s" s="4">
         <v>10</v>
@@ -2070,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s" s="4">
         <v>20</v>
@@ -2082,7 +2085,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s" s="4">
         <v>8</v>
@@ -2094,7 +2097,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s" s="4">
         <v>20</v>
@@ -2106,7 +2109,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s" s="4">
         <v>20</v>
@@ -2178,7 +2181,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s" s="4">
         <v>6</v>
@@ -2190,7 +2193,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s" s="4">
         <v>10</v>
@@ -2202,7 +2205,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s" s="4">
         <v>10</v>
@@ -2214,7 +2217,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s" s="4">
         <v>10</v>
@@ -2226,7 +2229,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s" s="4">
         <v>6</v>
@@ -2238,7 +2241,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>20</v>
@@ -2250,7 +2253,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>10</v>
@@ -2262,7 +2265,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>10</v>
@@ -2274,7 +2277,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>10</v>
@@ -2286,7 +2289,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>10</v>
@@ -2298,7 +2301,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2310,7 +2313,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2322,7 +2325,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>20</v>
@@ -2334,7 +2337,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s" s="4">
         <v>10</v>
@@ -2346,7 +2349,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s" s="4">
         <v>17</v>
@@ -2358,7 +2361,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s" s="4">
         <v>17</v>
@@ -2370,7 +2373,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s" s="4">
         <v>10</v>
@@ -2382,7 +2385,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s" s="4">
         <v>6</v>
@@ -2394,7 +2397,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s" s="4">
         <v>6</v>
@@ -2406,7 +2409,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s" s="4">
         <v>17</v>
@@ -2418,7 +2421,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s" s="4">
         <v>17</v>
@@ -2430,7 +2433,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s" s="4">
         <v>6</v>
@@ -2442,7 +2445,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s" s="4">
         <v>6</v>
@@ -2495,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2504,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2513,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2522,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2531,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2540,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2549,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2558,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2567,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2576,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2585,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2594,7 +2597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2603,7 +2606,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2612,7 +2615,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2621,7 +2624,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2630,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2639,7 +2642,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2648,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2657,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2666,7 +2669,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2675,7 +2678,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2684,7 +2687,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2693,7 +2696,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2702,7 +2705,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2711,7 +2714,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2720,7 +2723,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2729,7 +2732,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2738,7 +2741,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2747,7 +2750,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2756,7 +2759,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2765,7 +2768,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2774,7 +2777,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2783,7 +2786,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2792,7 +2795,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2801,7 +2804,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2810,7 +2813,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -207,109 +207,8 @@
     <t>食糧が足りない</t>
   </si>
   <si>
-    <t>攻撃力</t>
-  </si>
-  <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>はい</t>
-  </si>
-  <si>
-    <t>いいえ</t>
-  </si>
-  <si>
-    <t>アイテムを捨てて&lt;val1&gt;を手に入れますか？</t>
-  </si>
-  <si>
-    <t>キャンセル</t>
-  </si>
-  <si>
-    <t>攻撃</t>
-  </si>
-  <si>
-    <t>アイテム</t>
-  </si>
-  <si>
-    <t>逃走</t>
-  </si>
-  <si>
-    <t>敵全体</t>
-  </si>
-  <si>
-    <t>メニュー</t>
-  </si>
-  <si>
-    <t>次のフロア</t>
-  </si>
-  <si>
-    <t>ショップ</t>
-  </si>
-  <si>
-    <t>購入</t>
-  </si>
-  <si>
-    <t>アイテム売却</t>
-  </si>
-  <si>
-    <t>スキル売却</t>
-  </si>
-  <si>
-    <t>スキル確認</t>
-  </si>
-  <si>
-    <t>アイテム捨てる</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;を捨てます。よろしいですか？</t>
-  </si>
-  <si>
-    <t>力</t>
-  </si>
-  <si>
-    <t>体力</t>
-  </si>
-  <si>
-    <t>素早さ</t>
-  </si>
-  <si>
-    <t>魔力</t>
-  </si>
-  <si>
-    <t>回復</t>
-  </si>
-  <si>
-    <t>HP10％回復</t>
-  </si>
-  <si>
-    <t>HP全回復</t>
-  </si>
-  <si>
-    <t>HPを10%回復します</t>
-  </si>
-  <si>
-    <t>HPを最大値まで回復します</t>
-  </si>
-  <si>
-    <t>食糧</t>
-  </si>
-  <si>
-    <t>食糧がなくなるとダメージを受けます</t>
-  </si>
-  <si>
-    <t>モンスターに遭遇した！</t>
-  </si>
-  <si>
-    <t>&lt;val1&gt;G拾った</t>
-  </si>
-  <si>
-    <t>地形効果：</t>
-  </si>
-  <si>
-    <t>ダメージ</t>
-  </si>
-  <si>
-    <t>毒</t>
+    <t xml:space="preserve">あと一歩でボスが出現します&lt;br&gt;ボスとの戦いに備えましょう
+</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2364,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2494,326 +2393,11 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A38">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>64</v>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" t="s" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" t="s" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" t="s" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" t="s" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" t="s" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" t="s" s="4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" t="s" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" ht="20" customHeight="1">
-      <c r="A36" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" t="s" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" ht="20" customHeight="1">
-      <c r="A37" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" t="s" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" ht="20" customHeight="1">
-      <c r="A38" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" t="s" s="4">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -207,8 +207,14 @@
     <t>食糧が足りない</t>
   </si>
   <si>
-    <t xml:space="preserve">あと一歩でボスが出現します&lt;br&gt;ボスとの戦いに備えましょう
+    <t xml:space="preserve">あと一歩でボスが出現します&lt;br&gt;
+ボスとの戦いに備えましょう
 </t>
+  </si>
+  <si>
+    <t>愛想のよい男が近づいてきました&lt;br&gt;
+男はお金と引き替えに&lt;br&gt;
+アイテムを買って欲しいようです</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2370,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2391,13 +2397,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
+    <row r="3" ht="44.95" customHeight="1">
       <c r="A3" s="5">
-        <f>ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A4">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>64</v>
+      </c>
+    </row>
+    <row r="4" ht="58" customHeight="1">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -212,9 +212,14 @@
 </t>
   </si>
   <si>
-    <t>愛想のよい男が近づいてきました&lt;br&gt;
-男はお金と引き替えに&lt;br&gt;
-アイテムを買って欲しいようです</t>
+    <t>アイテム自販機を見つけました&lt;br&gt;
+ここではお金と引き替えに、&lt;br&gt;
+アイテムを購入することができます</t>
+  </si>
+  <si>
+    <t>女神像を見つけました&lt;br&gt;
+ここでは食糧を捧げることで、&lt;br&gt;
+あなたの能力を強化できます</t>
   </si>
 </sst>
 </file>
@@ -2370,7 +2375,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2399,7 +2404,7 @@
     </row>
     <row r="3" ht="44.95" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A4">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A5">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2413,6 +2418,15 @@
       </c>
       <c r="B4" t="s" s="4">
         <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="58" customHeight="1">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
